--- a/testDBs/test1/csv_schema.xlsx
+++ b/testDBs/test1/csv_schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\event-log-extraction-assistant\testDBs\test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B12E33-A887-4511-9C98-A3B1D359F7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8820235-1E7C-47B8-B375-666F7C17EF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22440" yWindow="0" windowWidth="29160" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40965" yWindow="0" windowWidth="10635" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>table_name</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>shipment</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -399,22 +408,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,27 +431,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -453,35 +465,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -492,18 +504,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -514,35 +526,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -553,21 +565,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
-        <v>4</v>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/testDBs/test1/csv_schema.xlsx
+++ b/testDBs/test1/csv_schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\event-log-extraction-assistant\testDBs\test1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Data\Promotieonderzoek\Papers\202302_ChatGPT\Code\event-log-extraction-assistant-dev_kiran\testDBs\test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8820235-1E7C-47B8-B375-666F7C17EF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F84AA4F-AB3A-44ED-B998-FF5146DD49F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40965" yWindow="0" windowWidth="10635" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="30060" windowHeight="16095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t>table_name</t>
   </si>
@@ -75,13 +75,7 @@
     <t>shipment</t>
   </si>
   <si>
-    <t>AA</t>
-  </si>
-  <si>
     <t>data_type</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -408,11 +402,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -431,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -580,28 +572,6 @@
       </c>
       <c r="F12" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
